--- a/课程目录/大学物理实验/实验22-RLC串联谐振/RLC串联谐振【数据报表】（UE-DND）.xlsx
+++ b/课程目录/大学物理实验/实验22-RLC串联谐振/RLC串联谐振【数据报表】（UE-DND）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UE-DND\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github Repos\CQUT-Course-Guide-Sharing-Scheme\课程目录\大学物理实验\实验22-RLC串联谐振\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F473CAA-B8AE-4C16-8F30-21552A8A3A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2ADE9B-6070-49A1-91DA-B59E1B39066F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -396,19 +396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -486,11 +473,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -523,6 +536,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,9 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,20 +581,23 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2292,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2303,23 +2319,23 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2454,7 +2470,7 @@
         <f t="shared" si="0"/>
         <v>4.0624701249243819E-3</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="31">
         <f t="shared" si="0"/>
         <v>3.9376453348741744E-3</v>
       </c>
@@ -2472,7 +2488,7 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2607,7 +2623,7 @@
         <f t="shared" si="1"/>
         <v>3.418484942260686E-3</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="31">
         <f t="shared" si="1"/>
         <v>3.1085299852535932E-3</v>
       </c>
@@ -2625,7 +2641,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="2:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2760,7 +2776,7 @@
         <f t="shared" si="2"/>
         <v>4.2761591006454346E-3</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="31">
         <f t="shared" si="2"/>
         <v>4.0821414019605934E-3</v>
       </c>
@@ -2778,7 +2794,7 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="2:9" ht="20" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="2:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2913,7 +2929,7 @@
         <f t="shared" si="3"/>
         <v>4.6073968748084849E-3</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="31">
         <f t="shared" si="3"/>
         <v>3.3469224029082571E-3</v>
       </c>
@@ -2931,7 +2947,7 @@
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
